--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8970,10 +8968,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9007,10 +9003,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -9040,10 +9034,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9073,10 +9065,8 @@
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9106,10 +9096,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9139,10 +9127,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9168,10 +9154,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9197,10 +9181,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9230,10 +9212,8 @@
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -9263,10 +9243,8 @@
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -9292,10 +9270,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9321,10 +9297,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9350,10 +9324,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9379,10 +9351,8 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -9408,10 +9378,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9441,10 +9409,8 @@
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -9470,10 +9436,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -9499,10 +9463,8 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -9528,10 +9490,8 @@
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -9557,44 +9517,46 @@
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>$6.88T</t>
-        </is>
-      </c>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -9608,123 +9570,91 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -9736,24 +9666,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -9765,28 +9695,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -9798,28 +9724,24 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1899K</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1885.0K</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -9831,28 +9753,24 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -9864,28 +9782,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -9897,28 +9811,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>213.5K</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>214.0K</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -9930,22 +9840,26 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
           <t>3</t>
@@ -9955,22 +9869,26 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
           <t>3</t>
@@ -9980,37 +9898,53 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pending Home Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -10022,109 +9956,89 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
+          <t>-233Bcf</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -10138,18 +10052,18 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>4.165%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -10163,45 +10077,29 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
@@ -10211,75 +10109,99 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Personal Spending MoMDEC</t>
+        </is>
+      </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10289,28 +10211,24 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
           <t>0.8%</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10322,19 +10240,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -10351,24 +10269,24 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10380,13 +10298,13 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -10397,116 +10315,112 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
           <t>3</t>
@@ -10516,26 +10430,18 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>3</t>
@@ -10545,1688 +10451,28 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>42-Day Bill Auction</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr"/>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>-1.017M</t>
-        </is>
-      </c>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>2.332M</t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr"/>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>228.0K</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>1899K</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>213.5K</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>214.0K</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>-233Bcf</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>6.16%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>6.96%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr"/>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr"/>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
-      <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr"/>
-      <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr"/>
-      <c r="E431" t="inlineStr"/>
-      <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11161,7 +11161,11 @@
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>0.184M</t>
+        </is>
+      </c>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
@@ -11182,7 +11186,11 @@
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-0.148M</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
@@ -11203,7 +11211,11 @@
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-0.473M</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
@@ -11224,7 +11236,11 @@
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-3.07M</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
@@ -11245,7 +11261,11 @@
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-0.043M</t>
+        </is>
+      </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr">
@@ -11266,7 +11286,11 @@
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>0.068M</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr">
@@ -11287,7 +11311,11 @@
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-1.125M</t>
+        </is>
+      </c>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr">
@@ -11405,7 +11433,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="E402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F402" t="inlineStr">
         <is>
           <t>3%</t>
@@ -11769,7 +11801,11 @@
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
@@ -11853,7 +11889,11 @@
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>$6.88T</t>
+        </is>
+      </c>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
@@ -12052,21 +12092,13 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr">
         <is>
           <t>2</t>
@@ -12081,19 +12113,19 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -12110,74 +12142,82 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
       <c r="D428" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
       <c r="E430" t="inlineStr"/>
-      <c r="F430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12189,7 +12229,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -12205,20 +12245,28 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
+        </is>
+      </c>
       <c r="C432" t="inlineStr"/>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
+          <t>Saturday February 01 2025</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -12228,6 +12276,19 @@
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr"/>
     </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -10118,13 +10118,13 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>4.335%</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -10168,13 +10168,13 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>4.335%</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -10757,13 +10757,13 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>0.140%</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -10777,18 +10777,18 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>0.140%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G434"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -12289,6 +12289,27 @@
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
     </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9616,7 +9616,11 @@
           <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>55.4</t>
@@ -9645,7 +9649,11 @@
           <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr"/>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>49.4</t>
@@ -9678,7 +9686,11 @@
           <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>56.8</t>
@@ -9711,7 +9723,11 @@
           <t>Existing Home SalesDEC</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>4.15M</t>
@@ -9744,7 +9760,11 @@
           <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>4.8%</t>
@@ -9773,7 +9793,11 @@
           <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>74.0</t>
@@ -9806,7 +9830,11 @@
           <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>3%</t>
@@ -9839,7 +9867,11 @@
           <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>73.3</t>
@@ -9872,7 +9904,11 @@
           <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>75.1</t>
@@ -9905,7 +9941,11 @@
           <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>2.8%</t>
@@ -10331,7 +10371,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F360" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -10443,7 +10487,11 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
           <t>4%</t>
@@ -10501,7 +10549,11 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F366" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -10621,7 +10673,11 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
       <c r="F370" t="inlineStr">
         <is>
           <t>-8</t>
@@ -11029,7 +11085,11 @@
           <t>$-102.86B</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>$-105.4B</t>
+        </is>
+      </c>
       <c r="F386" t="inlineStr">
         <is>
           <t>$ -101.0B</t>
@@ -11087,7 +11147,11 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="E388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F388" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -11466,10 +11530,14 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="E403" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -11495,7 +11563,11 @@
           <t>223K</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
           <t>228.0K</t>
@@ -11698,7 +11770,11 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -11919,7 +11995,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F420" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -12072,7 +12152,11 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="E425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F425" t="inlineStr">
         <is>
           <t>0.7%</t>
@@ -12209,7 +12293,11 @@
           <t>36.9</t>
         </is>
       </c>
-      <c r="E430" t="inlineStr"/>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
       <c r="F430" t="inlineStr">
         <is>
           <t>37.2</t>
@@ -12310,6 +12398,160 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMDEC</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesJAN</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12552,6 +12552,48 @@
         </is>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -9978,7 +9978,11 @@
           <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>478</t>
@@ -10003,7 +10007,11 @@
           <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
           <t>580</t>
@@ -12321,7 +12329,11 @@
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
@@ -12342,7 +12354,11 @@
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr"/>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
